--- a/sales/protected/commands/template/integral.xlsx
+++ b/sales/protected/commands/template/integral.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Documents\GitHub2\Sales\sales\protected\commands\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84625E27-B5E1-4562-85B5-02C1BA970703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876C83B8-5061-4887-B90E-21C46A2C1357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15360" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="510" windowWidth="21960" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +251,12 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -515,7 +521,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -618,21 +624,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -692,6 +683,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -971,7 +974,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1028,7 +1031,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="49" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5"/>
@@ -1037,7 +1040,7 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="49" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6"/>
@@ -1046,7 +1049,7 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="49" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="5"/>
@@ -1055,7 +1058,7 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="50" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5"/>
@@ -1064,7 +1067,7 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="5"/>
@@ -1075,16 +1078,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="24.75">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:8" ht="18">
       <c r="A16" s="7" t="s">
@@ -1228,38 +1231,38 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18">
-      <c r="A25" s="34" t="s">
+    <row r="25" spans="1:8" ht="17.25">
+      <c r="A25" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36" t="s">
+      <c r="C25" s="55"/>
+      <c r="D25" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="57"/>
     </row>
     <row r="26" spans="1:8" ht="17.25">
       <c r="A26" s="31"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="32"/>
       <c r="D26" s="21"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="1:8" ht="17.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="41"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="17" t="s">
         <v>28</v>
       </c>
@@ -1267,18 +1270,18 @@
       <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" ht="17.25">
-      <c r="A28" s="39"/>
-      <c r="B28" s="42"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="43"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" ht="17.25">
       <c r="A29" s="31"/>
-      <c r="B29" s="41"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
@@ -1287,41 +1290,41 @@
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8" ht="16.5">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46" t="s">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:8" ht="16.5">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="46" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="47"/>
-      <c r="H31" s="51"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="33" spans="1:1" ht="17.25">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="47" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="17.25">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="47" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="17.25">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="48" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1330,7 +1333,7 @@
     <mergeCell ref="A15:H15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sales/protected/commands/template/integral.xlsx
+++ b/sales/protected/commands/template/integral.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT\Documents\GitHub2\Sales\sales\protected\commands\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876C83B8-5061-4887-B90E-21C46A2C1357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="510" windowWidth="21960" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,6 +113,9 @@
     <t>安装维护费</t>
   </si>
   <si>
+    <t>每个新客户</t>
+  </si>
+  <si>
     <t>合计</t>
   </si>
   <si>
@@ -162,20 +159,23 @@
   </si>
   <si>
     <t>预付月数</t>
-  </si>
-  <si>
-    <t>每个新客户</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -183,7 +183,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -191,14 +191,14 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -235,6 +235,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -252,13 +258,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="136"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,7 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
+        <fgColor theme="4" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,8 +421,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -466,7 +796,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -479,7 +809,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -495,17 +825,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -515,9 +834,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -543,6 +1104,18 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -624,34 +1197,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
@@ -666,48 +1254,71 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -965,40 +1576,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="$A25:$XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85833333333333" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.7083333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.1416666666667" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.8583333333333" customWidth="1"/>
+    <col min="7" max="7" width="11.425" customWidth="1"/>
+    <col min="8" max="8" width="33.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25">
+    <row r="1" ht="25.5" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21">
+    <row r="2" ht="20.25" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1006,7 +1617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1014,12 +1625,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21">
+    <row r="6" ht="20.25" spans="1:1">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1027,305 +1638,305 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="58" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="58" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="59" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="14" spans="1:8" ht="21">
+    <row r="14" ht="21" spans="1:1">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="24.75">
-      <c r="A15" s="51" t="s">
+    <row r="15" ht="25.5" spans="1:8">
+      <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
-    </row>
-    <row r="16" spans="1:8" ht="18">
-      <c r="A16" s="7" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" ht="18.75" spans="1:8">
+      <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" ht="17.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17" t="s">
+    <row r="17" ht="17.25" spans="1:8">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" ht="17.25" spans="1:8">
+      <c r="A18" s="19"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" ht="18">
-      <c r="A20" s="7" t="s">
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" ht="17.25" spans="1:8">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" ht="18.75" spans="1:8">
+      <c r="A20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="27"/>
-    </row>
-    <row r="22" spans="1:8" ht="17.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17" t="s">
+    <row r="21" ht="17.25" spans="1:8">
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" ht="17.25" spans="1:8">
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="30"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" spans="1:8" ht="18">
-      <c r="A24" s="7" t="s">
+      <c r="G22" s="22"/>
+      <c r="H22" s="34"/>
+    </row>
+    <row r="23" ht="16.5" spans="1:8">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" ht="18.75" spans="1:8">
+      <c r="A24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17.25">
-      <c r="A25" s="54" t="s">
+    <row r="25" ht="17.25" spans="1:8">
+      <c r="A25" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="57"/>
-    </row>
-    <row r="26" spans="1:8" ht="17.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
-    </row>
-    <row r="27" spans="1:8" ht="17.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="17" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" ht="17.25" spans="1:8">
+      <c r="A26" s="35"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" ht="17.25" spans="1:8">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" ht="17.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="43"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="41" t="s">
+      <c r="G27" s="22"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" ht="17.25" spans="1:8">
+      <c r="A28" s="46"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="47"/>
+    </row>
+    <row r="29" ht="17.25" spans="1:8">
+      <c r="A29" s="35"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
+    </row>
+    <row r="30" ht="17.25" spans="1:8">
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="46"/>
-    </row>
-    <row r="33" spans="1:1" ht="17.25">
-      <c r="A33" s="47" t="s">
+      <c r="G30" s="51"/>
+      <c r="H30" s="52"/>
+    </row>
+    <row r="31" ht="17.25" spans="1:8">
+      <c r="A31" s="53"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="50" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="17.25">
-      <c r="A34" s="47" t="s">
+      <c r="G31" s="51"/>
+      <c r="H31" s="55"/>
+    </row>
+    <row r="33" ht="17.25" spans="1:1">
+      <c r="A33" s="56" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="17.25">
-      <c r="A35" s="48" t="s">
+    <row r="34" ht="17.25" spans="1:1">
+      <c r="A34" s="56" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="35" ht="17.25" spans="1:1">
+      <c r="A35" s="57" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1333,66 +1944,69 @@
     <mergeCell ref="A15:H15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.425" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.70833333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="20" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.1416666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.8583333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.2833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.7083333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.425" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.8583333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.7083333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.70833333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>